--- a/bh3/495307259354735550_2021-02-24_18-05-08.xlsx
+++ b/bh3/495307259354735550_2021-02-24_18-05-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-01 20:56:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44256.87273148148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-01 18:10:41</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44256.75741898148</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -682,10 +694,8 @@
           <t>4203929466</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:48:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44256.49199074074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -762,10 +772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:46:36</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44256.49069444444</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -837,10 +845,8 @@
           <t>4202335104</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-28 22:55:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44255.95546296296</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -912,10 +918,8 @@
           <t>4177822270</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-28 09:38:22</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44255.40164351852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -983,10 +987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-28 00:15:21</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44255.01065972223</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1058,10 +1060,8 @@
           <t>4196200836</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-27 20:31:40</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44254.85532407407</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1125,10 +1125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:09:57</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44254.38190972222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1196,10 +1194,8 @@
           <t>4192042259</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-27 01:37:02</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44254.06738425926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1263,10 +1259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-27 01:28:30</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44254.06145833333</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1334,10 +1328,8 @@
           <t>4178248745</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:14:43</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44253.80188657407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1405,10 +1397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:13:50</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44253.80127314815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1476,10 +1466,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:25:40</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44253.76782407407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1547,10 +1535,8 @@
           <t>4177813945</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:21:42</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44253.76506944445</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1614,10 +1600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:43:17</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44253.7383912037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1694,10 +1678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:57:11</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44253.58137731482</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1765,10 +1747,8 @@
           <t>4186998647</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-26 10:31:50</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44253.43877314815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1836,10 +1816,8 @@
           <t>4186994636</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-26 10:30:38</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44253.43793981482</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1907,10 +1885,8 @@
           <t>4186735982</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-26 09:22:18</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44253.39048611111</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1974,10 +1950,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-26 08:50:16</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44253.36824074074</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2053,10 +2027,8 @@
           <t>4182399611</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-26 04:16:59</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44253.17846064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2128,10 +2100,8 @@
           <t>4179738932</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-26 02:37:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44253.109375</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2207,10 +2177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-26 02:24:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44253.10006944444</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2283,10 +2251,8 @@
           <t>4186144922</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-26 02:21:45</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44253.0984375</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2359,10 +2325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-25 23:53:36</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44252.99555555556</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2430,10 +2394,8 @@
           <t>4184830420</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-25 21:54:05</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44252.91255787037</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2505,10 +2467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-25 21:51:51</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44252.91100694444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2576,10 +2536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-25 20:40:34</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44252.86150462963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2651,10 +2609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-25 19:53:01</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44252.82848379629</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2726,10 +2682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-25 16:25:19</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44252.68424768518</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2789,10 +2743,8 @@
           <t>4182874296</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-25 16:14:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44252.67684027777</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2864,10 +2816,8 @@
           <t>4182875732</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-25 16:13:33</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44252.67607638889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2939,10 +2889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-25 15:18:39</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44252.63795138889</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3006,10 +2954,8 @@
           <t>4182600407</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-25 15:12:23</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44252.63359953704</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3073,10 +3019,8 @@
           <t>4182399611</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-25 14:25:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44252.60118055555</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3152,10 +3096,8 @@
           <t>4182064634</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-25 13:11:57</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44252.54996527778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3223,10 +3165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-25 13:10:47</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44252.54915509259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3294,10 +3234,8 @@
           <t>4181143450</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:52:48</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44252.53666666667</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3373,10 +3311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:48:51</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44252.53392361111</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3440,10 +3376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:21:42</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44252.51506944445</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3512,10 +3446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:06:01</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44252.50417824074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3583,10 +3515,8 @@
           <t>4181720389</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-25 12:05:53</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44252.50408564815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3654,10 +3584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-25 11:43:26</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44252.48849537037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3717,10 +3645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-25 11:05:49</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44252.46237268519</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3784,10 +3710,8 @@
           <t>4179738932</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-25 11:01:29</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44252.45936342593</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3851,10 +3775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-25 10:51:15</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44252.45225694445</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3918,10 +3840,8 @@
           <t>4179738932</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-25 10:46:09</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44252.44871527778</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3990,10 +3910,8 @@
           <t>4181270393</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-25 10:27:55</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44252.43605324074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4057,10 +3975,8 @@
           <t>4178880153</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-25 10:23:15</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44252.4328125</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4136,10 +4052,8 @@
           <t>4179738932</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-25 10:23:13</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44252.43278935185</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4204,10 +4118,8 @@
           <t>4181143450</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-25 09:57:33</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44252.41496527778</v>
       </c>
       <c r="I53" t="n">
         <v>24</v>
@@ -4271,10 +4183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-25 09:45:23</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44252.4065162037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4346,10 +4256,8 @@
           <t>4181035290</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-25 09:24:40</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44252.39212962963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4421,10 +4329,8 @@
           <t>4179129343</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-25 09:19:48</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44252.38875</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4488,10 +4394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-25 09:08:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44252.38060185185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4567,10 +4471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-25 09:04:53</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44252.3783912037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4638,10 +4540,8 @@
           <t>4180940821</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-25 08:55:16</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44252.37171296297</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4713,10 +4613,8 @@
           <t>4180915739</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-25 08:45:52</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44252.36518518518</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4784,10 +4682,8 @@
           <t>4180884172</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-25 08:37:30</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44252.359375</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4855,10 +4751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-25 08:32:58</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44252.35622685185</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4922,10 +4816,8 @@
           <t>4180751647</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-25 07:27:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44252.31107638889</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4997,10 +4889,8 @@
           <t>4177874072</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-25 05:55:20</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44252.24675925926</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5076,10 +4966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-25 01:33:51</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44252.06517361111</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5155,10 +5043,8 @@
           <t>4180277490</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-25 01:11:14</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44252.04946759259</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5234,10 +5120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:52:45</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44252.03663194444</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5306,10 +5190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:36:57</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44252.02565972223</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5385,10 +5267,8 @@
           <t>4180121270</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:31:41</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44252.02200231481</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5460,10 +5340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:28:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44252.01993055556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5527,10 +5405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:28:21</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44252.0196875</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5606,10 +5482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:25:56</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44252.01800925926</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5677,10 +5551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-25 00:00:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44252.00059027778</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5748,10 +5620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:50:42</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44251.99354166666</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5819,10 +5689,8 @@
           <t>4179906720</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:50:12</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44251.99319444445</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5890,10 +5758,8 @@
           <t>4177841740</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:50:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44251.99313657408</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5957,10 +5823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:48:50</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44251.99224537037</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6024,10 +5888,8 @@
           <t>4178091662</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:48:19</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44251.99188657408</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6103,10 +5965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:46:01</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44251.99028935185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6172,10 +6032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:40:45</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44251.98663194444</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6239,10 +6097,8 @@
           <t>4177922119</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:39:33</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44251.98579861111</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6306,10 +6162,8 @@
           <t>4179810417</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:32:46</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44251.98108796297</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6385,10 +6239,8 @@
           <t>4179799858</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:32:29</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44251.9808912037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6464,10 +6316,8 @@
           <t>4178091662</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:31:11</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44251.97998842593</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6535,10 +6385,8 @@
           <t>4179787125</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:30:31</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44251.97952546296</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6602,10 +6450,8 @@
           <t>4179777602</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:28:37</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44251.97820601852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6665,10 +6511,8 @@
           <t>4179738932</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:22:43</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44251.9741087963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6737,10 +6581,8 @@
           <t>4178525624</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:22:16</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44251.9737962963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6809,10 +6651,8 @@
           <t>4179728688</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:21:15</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44251.97309027778</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6881,10 +6721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:20:05</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44251.9722800926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6948,10 +6786,8 @@
           <t>4179676860</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:12:46</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44251.96719907408</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7027,10 +6863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:12:13</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44251.96681712963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7094,10 +6928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:11:01</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44251.9659837963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7169,10 +7001,8 @@
           <t>4179615971</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-24 23:02:27</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44251.96003472222</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7232,10 +7062,8 @@
           <t>4179533733</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:50:12</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44251.95152777778</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7295,10 +7123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:47:35</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44251.94971064815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7374,10 +7200,8 @@
           <t>4179505455</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:45:28</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44251.94824074074</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7445,10 +7269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:33:58</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44251.94025462963</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7524,10 +7346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:24:49</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44251.93390046297</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7595,10 +7415,8 @@
           <t>4177846148</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:20:51</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44251.93114583333</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7662,10 +7480,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:17:16</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44251.92865740741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7741,10 +7557,8 @@
           <t>4179263343</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:09:29</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44251.92325231482</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
@@ -7816,10 +7630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:04:59</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44251.92012731481</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7883,10 +7695,8 @@
           <t>4179219534</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:03:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44251.91915509259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7962,10 +7772,8 @@
           <t>4179204010</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-24 22:00:56</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44251.91731481482</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8035,10 +7843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:51:32</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44251.91078703704</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8110,10 +7916,8 @@
           <t>4179138370</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:49:57</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44251.9096875</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8189,10 +7993,8 @@
           <t>4179129343</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:48:30</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44251.90868055556</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8256,10 +8058,8 @@
           <t>4179127448</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:47:30</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44251.90798611111</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8323,10 +8123,8 @@
           <t>4178974724</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:22:57</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44251.8909375</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8402,10 +8200,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:21:16</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44251.88976851852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8469,10 +8265,8 @@
           <t>4178963370</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:20:22</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44251.88914351852</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8540,10 +8334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:14:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44251.88496527778</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8611,10 +8403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:13:28</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44251.88435185186</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8690,10 +8480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:13:20</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44251.88425925926</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8765,10 +8553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:07:50</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44251.88043981481</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8840,10 +8626,8 @@
           <t>4178880153</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:05:46</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44251.87900462963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8907,10 +8691,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-24 21:01:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44251.87584490741</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8974,10 +8756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:55:31</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44251.87188657407</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9037,10 +8817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:51:59</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44251.86943287037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9104,10 +8882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:51:21</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44251.86899305556</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9175,10 +8951,8 @@
           <t>4178776837</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:48:38</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44251.86710648148</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9246,10 +9020,8 @@
           <t>4178768451</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:48:03</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44251.86670138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9325,10 +9097,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:46:30</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44251.865625</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9404,10 +9174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:44:17</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44251.86408564815</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9475,10 +9243,8 @@
           <t>4178730928</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:41:09</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44251.86190972223</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9550,10 +9316,8 @@
           <t>4178171387</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:36:40</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44251.8587962963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9621,10 +9385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:36:13</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44251.8584837963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9700,10 +9462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:36:05</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44251.85839120371</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9779,10 +9539,8 @@
           <t>4178171387</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:34:42</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44251.85743055555</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9854,10 +9612,8 @@
           <t>4178171387</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:34:33</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44251.85732638889</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9929,10 +9685,8 @@
           <t>4178171387</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:31:30</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44251.85520833333</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10000,10 +9754,8 @@
           <t>4178660697</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:29:12</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44251.85361111111</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10079,10 +9831,8 @@
           <t>4178646367</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:27:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44251.85211805555</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10150,10 +9900,8 @@
           <t>4178525624</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:26:55</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44251.85202546296</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10230,10 +9978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:25:48</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44251.85125</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10305,10 +10051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:21:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44251.84857638889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10376,10 +10120,8 @@
           <t>4178602154</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:20:01</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44251.8472337963</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10447,10 +10189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:14:26</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44251.84335648148</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10518,10 +10258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:13:40</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44251.84282407408</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10597,10 +10335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:11:18</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44251.84118055556</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10676,10 +10412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:11:16</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44251.84115740741</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10743,10 +10477,8 @@
           <t>4177822270</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:09:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44251.84025462963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10818,10 +10550,8 @@
           <t>4178525624</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:06:54</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44251.838125</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10897,10 +10627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:05:34</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44251.83719907407</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10964,10 +10692,8 @@
           <t>4178039114</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:05:13</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44251.83695601852</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11043,10 +10769,8 @@
           <t>4178508888</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:03:45</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44251.8359375</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11110,10 +10834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-24 20:01:45</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44251.83454861111</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11177,10 +10899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:59:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44251.83273148148</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11252,10 +10972,8 @@
           <t>4177846148</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:58:12</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44251.83208333333</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11331,10 +11049,8 @@
           <t>4178439413</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:53:03</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44251.82850694445</v>
       </c>
       <c r="I151" t="n">
         <v>6</v>
@@ -11398,10 +11114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:49:26</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44251.82599537037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11473,10 +11187,8 @@
           <t>4178171387</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:48:54</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44251.825625</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11552,10 +11264,8 @@
           <t>4177963686</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:47:54</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44251.82493055556</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11627,10 +11337,8 @@
           <t>4177871191</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:46:27</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44251.82392361111</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11702,10 +11410,8 @@
           <t>4177984520</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:45:15</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44251.82309027778</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11773,10 +11479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:45:13</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44251.82306712963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11844,10 +11548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:44:09</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44251.82232638889</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11915,10 +11617,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:43:29</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44251.82186342592</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11986,10 +11686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:41:15</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44251.8203125</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12065,10 +11763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:39:44</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44251.81925925926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12144,10 +11840,8 @@
           <t>4178351953</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:36:47</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44251.81721064815</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12219,10 +11913,8 @@
           <t>4178311444</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:36:17</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44251.81686342593</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12290,10 +11982,8 @@
           <t>4177846148</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:36:00</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44251.81666666667</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12361,10 +12051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:35:17</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44251.81616898148</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12432,10 +12120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:35:05</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44251.8160300926</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12511,10 +12197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:34:26</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44251.8155787037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12591,10 +12275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:31:48</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44251.81375</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12670,10 +12352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:31:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44251.81344907408</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12737,10 +12417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:31:11</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44251.81332175926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12809,10 +12487,8 @@
           <t>4177871191</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:31:05</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44251.81325231482</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12880,10 +12556,8 @@
           <t>4178311444</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:30:25</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44251.81278935185</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12958,10 +12632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:29:35</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44251.81221064815</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13033,10 +12705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:28:16</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44251.8112962963</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13100,10 +12770,8 @@
           <t>4177846148</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:25:16</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44251.80921296297</v>
       </c>
       <c r="I175" t="n">
         <v>6</v>
@@ -13179,10 +12847,8 @@
           <t>4178275173</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:23:29</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44251.80797453703</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13242,10 +12908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:22:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44251.80712962963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13313,10 +12977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:22:12</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44251.80708333333</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13380,10 +13042,8 @@
           <t>4178091662</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:21:40</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44251.80671296296</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13459,10 +13119,8 @@
           <t>4178248745</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:20:25</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44251.80584490741</v>
       </c>
       <c r="I180" t="n">
         <v>4</v>
@@ -13532,10 +13190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:19:27</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44251.80517361111</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13603,10 +13259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:17:50</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44251.80405092592</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13682,10 +13336,8 @@
           <t>4178232645</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:17:31</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44251.80383101852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13749,10 +13401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:14:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44251.80157407407</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13828,10 +13478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:13:58</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44251.80136574074</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13907,10 +13555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:12:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44251.80034722222</v>
       </c>
       <c r="I186" t="n">
         <v>6</v>
@@ -13978,10 +13624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:12:11</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44251.80012731482</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14057,10 +13701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:12:03</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44251.80003472222</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14128,10 +13770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:10:18</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44251.79881944445</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14199,10 +13839,8 @@
           <t>4177984520</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:10:05</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44251.79866898148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14274,10 +13912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:09:57</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44251.79857638889</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14349,10 +13985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:09:42</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44251.79840277778</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14420,10 +14054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:08:55</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44251.79785879629</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14491,10 +14123,8 @@
           <t>4178181881</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:08:43</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44251.79771990741</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14566,10 +14196,8 @@
           <t>4178171387</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:06:55</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44251.79646990741</v>
       </c>
       <c r="I195" t="n">
         <v>11</v>
@@ -14637,10 +14265,8 @@
           <t>4178163186</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:05:58</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44251.79581018518</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14712,10 +14338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:05:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44251.79552083334</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14787,10 +14411,8 @@
           <t>4177874072</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:04:55</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44251.79508101852</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14866,10 +14488,8 @@
           <t>4178143190</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:02:41</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44251.79353009259</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -14937,10 +14557,8 @@
           <t>4177904758</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:01:04</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44251.79240740741</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15016,10 +14634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-24 19:00:28</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44251.79199074074</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15095,10 +14711,8 @@
           <t>4177984520</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:59:59</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44251.79165509259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15174,10 +14788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:59:34</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44251.79136574074</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15237,10 +14849,8 @@
           <t>4178122586</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:59:08</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44251.79106481482</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15304,10 +14914,8 @@
           <t>4178043753</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:58:51</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44251.79086805556</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15371,10 +14979,8 @@
           <t>4177813945</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:58:48</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44251.79083333333</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15434,10 +15040,8 @@
           <t>4178109046</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:57:17</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44251.78978009259</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15513,10 +15117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:56:46</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44251.78942129629</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15592,10 +15194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:56:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44251.78907407408</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15667,10 +15267,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:56:16</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44251.78907407408</v>
       </c>
       <c r="I210" t="n">
         <v>6</v>
@@ -15742,10 +15340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:56:06</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44251.78895833333</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15821,10 +15417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:55:56</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44251.78884259259</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -15888,10 +15482,8 @@
           <t>4178099645</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:55:52</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44251.7887962963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15955,10 +15547,8 @@
           <t>4177841740</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:55:22</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44251.78844907408</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16018,10 +15608,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:55:10</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44251.78831018518</v>
       </c>
       <c r="I215" t="n">
         <v>6</v>
@@ -16093,10 +15681,8 @@
           <t>4178043753</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:55:02</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44251.78821759259</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16156,10 +15742,8 @@
           <t>4178089270</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:54:52</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44251.78810185185</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16227,10 +15811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:54:45</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44251.78802083333</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16298,10 +15880,8 @@
           <t>4178097413</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:54:42</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44251.78798611111</v>
       </c>
       <c r="I219" t="n">
         <v>6</v>
@@ -16377,10 +15957,8 @@
           <t>4178091662</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:53:33</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44251.7871875</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16456,10 +16034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:53:24</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44251.78708333334</v>
       </c>
       <c r="I221" t="n">
         <v>4</v>
@@ -16535,10 +16111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:51:47</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44251.78596064815</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16610,10 +16184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:51:40</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44251.78587962963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16685,10 +16257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:48:25</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44251.78362268519</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16760,10 +16330,8 @@
           <t>4177922119</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:48:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44251.78356481482</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16827,10 +16395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:47:28</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44251.78296296296</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -16906,10 +16472,8 @@
           <t>4178048246</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:47:18</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44251.78284722222</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
@@ -16977,10 +16541,8 @@
           <t>4178043753</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:47:00</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44251.78263888889</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17044,10 +16606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:46:09</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44251.78204861111</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17119,10 +16679,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:46:02</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44251.78196759259</v>
       </c>
       <c r="I230" t="n">
         <v>8</v>
@@ -17190,10 +16748,8 @@
           <t>4177984520</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:45:34</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44251.78164351852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17265,10 +16821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:45:31</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44251.78160879629</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17344,10 +16898,8 @@
           <t>4178039114</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:45:18</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44251.78145833333</v>
       </c>
       <c r="I233" t="n">
         <v>22</v>
@@ -17419,10 +16971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:45:15</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44251.78142361111</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17498,10 +17048,8 @@
           <t>4177890229</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:43:29</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44251.78019675926</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17565,10 +17113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:42:33</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44251.77954861111</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17638,10 +17184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:41:51</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44251.7790625</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17705,10 +17249,8 @@
           <t>4177984520</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:41:44</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44251.77898148148</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17784,10 +17326,8 @@
           <t>4178020193</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:41:07</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44251.77855324074</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17863,10 +17403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:41:06</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44251.77854166667</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -17938,10 +17476,8 @@
           <t>4178011459</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:40:45</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44251.77829861111</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18017,10 +17553,8 @@
           <t>4177963686</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:39:13</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44251.7772337963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18088,10 +17622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:38:55</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44251.77702546296</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18159,10 +17691,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:37:45</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44251.77621527778</v>
       </c>
       <c r="I244" t="n">
         <v>9</v>
@@ -18230,10 +17760,8 @@
           <t>4177992803</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:37:40</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44251.77615740741</v>
       </c>
       <c r="I245" t="n">
         <v>14</v>
@@ -18309,10 +17837,8 @@
           <t>4177984520</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:37:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44251.77585648148</v>
       </c>
       <c r="I246" t="n">
         <v>19</v>
@@ -18380,10 +17906,8 @@
           <t>4177984315</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:37:08</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44251.77578703704</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18451,10 +17975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:36:58</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44251.77567129629</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18522,10 +18044,8 @@
           <t>4177990393</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:36:29</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44251.77533564815</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18593,10 +18113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:36:02</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44251.77502314815</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18673,10 +18191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:35:44</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44251.77481481482</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18752,10 +18268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:35:41</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44251.77478009259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18819,10 +18333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:35:12</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44251.77444444445</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18890,10 +18402,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:34:57</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44251.77427083333</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18969,10 +18479,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:34:49</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44251.77417824074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19040,10 +18548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:34:22</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44251.77386574074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19103,10 +18609,8 @@
           <t>4177900419</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:34:14</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44251.77377314815</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19170,10 +18674,8 @@
           <t>4177972503</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:34:00</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44251.77361111111</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19233,10 +18735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:33:58</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44251.77358796296</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19312,10 +18812,8 @@
           <t>4177972376</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:33:56</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44251.77356481482</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19383,10 +18881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:33:55</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44251.77355324074</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19458,10 +18954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:33:49</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44251.7734837963</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19537,10 +19031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:33:48</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44251.77347222222</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19612,10 +19104,8 @@
           <t>4177963686</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:33:14</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44251.77307870371</v>
       </c>
       <c r="I264" t="n">
         <v>24</v>
@@ -19687,10 +19177,8 @@
           <t>4177954691</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:32:09</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44251.77232638889</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19754,10 +19242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:31:56</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44251.77217592593</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19825,10 +19311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:31:41</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44251.77200231481</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19900,10 +19384,8 @@
           <t>4177957620</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:31:31</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44251.77188657408</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19975,10 +19457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:30:51</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44251.77142361111</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20046,10 +19526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:30:17</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44251.77103009259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20121,10 +19599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:30:11</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44251.77096064815</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20196,10 +19672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:29:14</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44251.77030092593</v>
       </c>
       <c r="I272" t="n">
         <v>170</v>
@@ -20263,10 +19737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:28:59</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44251.77012731481</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20339,10 +19811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:28:51</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44251.77003472222</v>
       </c>
       <c r="I274" t="n">
         <v>55</v>
@@ -20414,10 +19884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:28:36</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44251.76986111111</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20485,10 +19953,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:28:27</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44251.76975694444</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20564,10 +20030,8 @@
           <t>4177931079</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:27:16</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44251.76893518519</v>
       </c>
       <c r="I277" t="n">
         <v>17</v>
@@ -20631,10 +20095,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:27:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44251.76886574074</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20702,10 +20164,8 @@
           <t>4177929024</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:27:03</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44251.76878472222</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20773,10 +20233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:26:47</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44251.76859953703</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20852,10 +20310,8 @@
           <t>4177919739</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:26:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44251.76850694444</v>
       </c>
       <c r="I281" t="n">
         <v>7</v>
@@ -20915,10 +20371,8 @@
           <t>4177918336</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:25:58</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44251.76803240741</v>
       </c>
       <c r="I282" t="n">
         <v>4</v>
@@ -20978,10 +20432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:25:26</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44251.76766203704</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21058,10 +20510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:24:16</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44251.76685185185</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21137,10 +20587,8 @@
           <t>4177904758</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:24:14</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44251.7668287037</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21200,10 +20648,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:23:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44251.76665509259</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21267,10 +20713,8 @@
           <t>4177903645</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:23:42</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44251.76645833333</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21339,10 +20783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:23:38</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44251.76641203704</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21402,10 +20844,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:23:24</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44251.76625</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21477,10 +20917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:23:05</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44251.76603009259</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21556,10 +20994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:22:44</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44251.76578703704</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21635,10 +21071,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:22:40</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44251.76574074074</v>
       </c>
       <c r="I292" t="n">
         <v>149</v>
@@ -21714,10 +21148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:22:32</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44251.76564814815</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21789,10 +21221,8 @@
           <t>4177900419</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:22:08</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44251.76537037037</v>
       </c>
       <c r="I294" t="n">
         <v>96</v>
@@ -21866,10 +21296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:21:28</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44251.76490740741</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21933,10 +21361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:21:21</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44251.76482638889</v>
       </c>
       <c r="I296" t="n">
         <v>17</v>
@@ -22012,10 +21438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:21:21</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44251.76482638889</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22079,10 +21503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:21:06</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44251.76465277778</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22151,10 +21573,8 @@
           <t>4177892722</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:21:00</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44251.76458333333</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22230,10 +21650,8 @@
           <t>4177896135</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:20:23</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44251.76415509259</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22305,10 +21723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:20:16</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44251.76407407408</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22380,10 +21796,8 @@
           <t>4177885857</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:20:01</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44251.76390046296</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22459,10 +21873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:20:00</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44251.76388888889</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22534,10 +21946,8 @@
           <t>4177885529</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:19:51</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44251.76378472222</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22609,10 +22019,8 @@
           <t>4177890229</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:19:47</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44251.76373842593</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22684,10 +22092,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:19:33</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44251.76357638889</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -22759,10 +22165,8 @@
           <t>4177874072</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:19:12</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44251.76333333334</v>
       </c>
       <c r="I307" t="n">
         <v>89</v>
@@ -22830,10 +22234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:19:08</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44251.76328703704</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22905,10 +22307,8 @@
           <t>4177860563</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:19:07</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44251.76327546296</v>
       </c>
       <c r="I309" t="n">
         <v>9</v>
@@ -22976,10 +22376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:18:33</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44251.76288194444</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23055,10 +22453,8 @@
           <t>4177872491</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:18:25</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44251.76278935185</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23130,10 +22526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:18:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44251.76266203704</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23201,10 +22595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:18:13</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44251.76265046297</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23264,10 +22656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:55</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44251.76244212963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23335,10 +22725,8 @@
           <t>4177871191</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:43</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44251.76230324074</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23410,10 +22798,8 @@
           <t>4177871112</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:40</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44251.76226851852</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23481,10 +22867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:39</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44251.76225694444</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23560,10 +22944,8 @@
           <t>4177880654</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:33</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44251.7621875</v>
       </c>
       <c r="I318" t="n">
         <v>223</v>
@@ -23635,10 +23017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:15</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44251.76197916667</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23702,10 +23082,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:11</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44251.76193287037</v>
       </c>
       <c r="I320" t="n">
         <v>38</v>
@@ -23777,10 +23155,8 @@
           <t>4177869526</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:17:00</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44251.76180555556</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23852,10 +23228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:58</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44251.7617824074</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23927,10 +23301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:57</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44251.76177083333</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24006,10 +23378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:56</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44251.76175925926</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24077,10 +23447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:54</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44251.76173611111</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24144,10 +23512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:39</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44251.7615625</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24223,10 +23589,8 @@
           <t>4177858943</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:35</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44251.7615162037</v>
       </c>
       <c r="I327" t="n">
         <v>9</v>
@@ -24298,10 +23662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:16</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44251.7612962963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24365,10 +23727,8 @@
           <t>4177813945</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:16:04</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44251.76115740741</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24444,10 +23804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:54</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44251.76104166666</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24515,10 +23873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:45</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44251.7609375</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24589,10 +23945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:45</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44251.7609375</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24660,10 +24014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:44</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44251.76092592593</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24735,10 +24087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:16</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44251.76060185185</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24806,10 +24156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:12</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44251.76055555556</v>
       </c>
       <c r="I335" t="n">
         <v>12</v>
@@ -24873,10 +24221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:12</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44251.76055555556</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24948,10 +24294,8 @@
           <t>4177861048</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:15:10</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44251.76053240741</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25015,10 +24359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:14:55</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44251.76035879629</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25078,10 +24420,8 @@
           <t>4177860563</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:14:54</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44251.76034722223</v>
       </c>
       <c r="I339" t="n">
         <v>23</v>
@@ -25158,10 +24498,8 @@
           <t>4177854394</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:14:34</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44251.76011574074</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25233,10 +24571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:14:23</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44251.75998842593</v>
       </c>
       <c r="I341" t="n">
         <v>111</v>
@@ -25312,10 +24648,8 @@
           <t>4177853156</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:57</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44251.7596875</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25387,10 +24721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:51</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44251.75961805556</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25454,10 +24786,8 @@
           <t>4177852856</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44251.75960648148</v>
       </c>
       <c r="I344" t="n">
         <v>20</v>
@@ -25533,10 +24863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:40</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44251.75949074074</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25612,10 +24940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:39</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44251.75947916666</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25687,10 +25013,8 @@
           <t>4177842997</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44251.75942129629</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25762,10 +25086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:31</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44251.75938657407</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25839,10 +25161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:28</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44251.75935185186</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25914,10 +25234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:25</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44251.75931712963</v>
       </c>
       <c r="I350" t="n">
         <v>185</v>
@@ -25985,10 +25303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:23</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44251.75929398148</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26056,10 +25372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:22</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44251.75928240741</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26131,10 +25445,8 @@
           <t>4177842507</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:13:18</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44251.75923611111</v>
       </c>
       <c r="I353" t="n">
         <v>6</v>
@@ -26206,10 +25518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:59</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44251.7590162037</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26285,10 +25595,8 @@
           <t>4177841826</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:56</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44251.75898148148</v>
       </c>
       <c r="I355" t="n">
         <v>76</v>
@@ -26360,10 +25668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:54</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44251.75895833333</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26439,10 +25745,8 @@
           <t>4177841740</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:53</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44251.75894675926</v>
       </c>
       <c r="I357" t="n">
         <v>8</v>
@@ -26518,10 +25822,8 @@
           <t>4177850742</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:48</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44251.75888888889</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26585,10 +25887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:44</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44251.75884259259</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26656,10 +25956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:43</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44251.75883101852</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26727,10 +26025,8 @@
           <t>4177841428</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:43</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44251.75883101852</v>
       </c>
       <c r="I361" t="n">
         <v>14</v>
@@ -26798,10 +26094,8 @@
           <t>4177846148</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:37</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44251.75876157408</v>
       </c>
       <c r="I362" t="n">
         <v>10</v>
@@ -26877,10 +26171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:37</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44251.75876157408</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26940,10 +26232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:32</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44251.7587037037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27019,10 +26309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:18</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44251.75854166667</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27086,10 +26374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:06</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44251.75840277778</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27158,10 +26444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:12:02</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44251.75835648148</v>
       </c>
       <c r="I367" t="n">
         <v>739</v>
@@ -27231,10 +26515,8 @@
           <t>4177840019</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:58</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44251.75831018519</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27299,10 +26581,8 @@
           <t>4177819881</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:56</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44251.75828703704</v>
       </c>
       <c r="I369" t="n">
         <v>6</v>
@@ -27378,10 +26658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:47</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44251.75818287037</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27445,10 +26723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:42</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44251.758125</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27512,10 +26788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:41</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44251.75811342592</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27583,10 +26857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:41</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44251.75811342592</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27662,10 +26934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:39</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44251.75809027778</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27737,10 +27007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:26</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44251.75793981482</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27818,10 +27086,8 @@
           <t>4177837853</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:23</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44251.75790509259</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27889,10 +27155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:21</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44251.75788194445</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27968,10 +27232,8 @@
           <t>4177813945</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:18</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44251.75784722222</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -28047,10 +27309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:18</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44251.75784722222</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28118,10 +27378,8 @@
           <t>4177819881</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:10</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44251.75775462963</v>
       </c>
       <c r="I380" t="n">
         <v>8</v>
@@ -28193,10 +27451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:11:08</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44251.75773148148</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28264,10 +27520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:57</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44251.75760416667</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28339,10 +27593,8 @@
           <t>4177832820</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:52</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44251.7575462963</v>
       </c>
       <c r="I383" t="n">
         <v>3</v>
@@ -28410,10 +27662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:46</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44251.75747685185</v>
       </c>
       <c r="I384" t="n">
         <v>11</v>
@@ -28481,10 +27731,8 @@
           <t>4177832580</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:45</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44251.75746527778</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28556,10 +27804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:32</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44251.75731481481</v>
       </c>
       <c r="I386" t="n">
         <v>27</v>
@@ -28628,10 +27874,8 @@
           <t>4177827110</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:27</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44251.75725694445</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28699,10 +27943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:22</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44251.75719907408</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28774,10 +28016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:07</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44251.75702546296</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28849,10 +28089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:10:06</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44251.75701388889</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28928,10 +28166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:59</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44251.75693287037</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29003,10 +28239,8 @@
           <t>4177824697</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:46</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44251.75678240741</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29078,10 +28312,8 @@
           <t>4177830515</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:41</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44251.75672453704</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29145,10 +28377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:41</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44251.75672453704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29216,10 +28446,8 @@
           <t>4177830509</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:41</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44251.75672453704</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29291,10 +28519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:40</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44251.75671296296</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29370,10 +28596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:32</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44251.75662037037</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29442,10 +28666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:29</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44251.75658564815</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29513,10 +28735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:29</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44251.75658564815</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29580,10 +28800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:24</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44251.75652777778</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29653,10 +28871,8 @@
           <t>4177819881</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:22</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44251.75650462963</v>
       </c>
       <c r="I401" t="n">
         <v>58</v>
@@ -29716,10 +28932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:21</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44251.75649305555</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29791,10 +29005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44251.75649305555</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29866,10 +29078,8 @@
           <t>4177823648</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:17</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44251.75644675926</v>
       </c>
       <c r="I404" t="n">
         <v>6</v>
@@ -29933,10 +29143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:03</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44251.75628472222</v>
       </c>
       <c r="I405" t="n">
         <v>3</v>
@@ -30000,10 +29208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:09:00</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44251.75625</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30075,10 +29281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:55</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44251.75619212963</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30155,10 +29359,8 @@
           <t>4177813945</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:43</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44251.75605324074</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30222,10 +29424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:43</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44251.75605324074</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30293,10 +29493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:41</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44251.75603009259</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30364,10 +29562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:38</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44251.75599537037</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30443,10 +29639,8 @@
           <t>4177822270</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:37</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44251.7559837963</v>
       </c>
       <c r="I412" t="n">
         <v>5</v>
@@ -30522,10 +29716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:30</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44251.75590277778</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30593,10 +29785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:29</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44251.75589120371</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30668,10 +29858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:24</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44251.75583333334</v>
       </c>
       <c r="I415" t="n">
         <v>7</v>
@@ -30743,10 +29931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:22</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44251.75581018518</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30810,10 +29996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:11</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44251.75568287037</v>
       </c>
       <c r="I417" t="n">
         <v>4</v>
@@ -30877,10 +30061,8 @@
           <t>4177821402</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:10</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44251.7556712963</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30944,10 +30126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:07</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44251.75563657407</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31015,10 +30195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:08:00</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44251.75555555556</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31090,10 +30268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44251.75550925926</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31169,10 +30345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:52</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44251.75546296296</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31236,10 +30410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:47</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44251.75540509259</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31308,10 +30480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:38</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44251.75530092593</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31383,10 +30553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:30</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44251.75520833334</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31454,10 +30622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:27</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44251.75517361111</v>
       </c>
       <c r="I426" t="n">
         <v>25</v>
@@ -31525,10 +30691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:27</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44251.75517361111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31600,10 +30764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:07:00</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44251.75486111111</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31679,10 +30841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:56</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44251.75481481481</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31758,10 +30918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:55</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44251.75480324074</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31825,10 +30983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:54</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44251.75479166667</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31900,10 +31056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:52</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44251.75476851852</v>
       </c>
       <c r="I432" t="n">
         <v>50</v>
@@ -31972,10 +31126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:50</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44251.75474537037</v>
       </c>
       <c r="I433" t="n">
         <v>663</v>
@@ -32047,10 +31199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:48</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44251.75472222222</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32122,10 +31272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:48</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44251.75472222222</v>
       </c>
       <c r="I435" t="n">
         <v>328</v>
@@ -32201,10 +31349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:44</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44251.75467592593</v>
       </c>
       <c r="I436" t="n">
         <v>3</v>
@@ -32280,10 +31426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:44</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44251.75467592593</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32355,10 +31499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:38</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44251.75460648148</v>
       </c>
       <c r="I438" t="n">
         <v>3</v>
@@ -32426,10 +31568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:37</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44251.7545949074</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32493,10 +31633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:37</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44251.7545949074</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32573,10 +31711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:36</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44251.75458333334</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32648,10 +31784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:33</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44251.75454861111</v>
       </c>
       <c r="I442" t="n">
         <v>622</v>
@@ -32723,10 +31857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:33</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44251.75454861111</v>
       </c>
       <c r="I443" t="n">
         <v>359</v>
@@ -32794,10 +31926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:27</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44251.75447916667</v>
       </c>
       <c r="I444" t="n">
         <v>18</v>
@@ -32865,10 +31995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:27</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44251.75447916667</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32940,10 +32068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:26</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44251.75446759259</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33019,10 +32145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:21</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44251.75440972222</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33094,10 +32218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:20</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44251.75439814815</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33161,10 +32283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:20</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44251.75439814815</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33240,10 +32360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:19</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44251.75438657407</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33320,10 +32438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:17</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44251.75436342593</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33395,10 +32511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:14</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44251.7543287037</v>
       </c>
       <c r="I452" t="n">
         <v>97</v>
@@ -33474,10 +32588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:12</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44251.75430555556</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33537,10 +32649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:09</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44251.75427083333</v>
       </c>
       <c r="I454" t="n">
         <v>2</v>
@@ -33612,10 +32722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:08</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44251.75425925926</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33691,10 +32799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:06</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44251.75423611111</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33770,10 +32876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:06</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44251.75423611111</v>
       </c>
       <c r="I457" t="n">
         <v>1658</v>
@@ -33845,10 +32949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:05</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44251.75422453704</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33916,10 +33018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:02</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44251.75418981481</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33991,10 +33091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:06:02</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44251.75418981481</v>
       </c>
       <c r="I460" t="n">
         <v>59</v>
@@ -34058,10 +33156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:59</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44251.7541550926</v>
       </c>
       <c r="I461" t="n">
         <v>10</v>
@@ -34133,10 +33229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:55</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44251.7541087963</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34196,10 +33290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:54</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44251.75409722222</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34263,10 +33355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:51</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44251.7540625</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34338,10 +33428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:51</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44251.7540625</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34409,10 +33497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:49</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44251.75403935185</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34484,10 +33570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:49</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44251.75403935185</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34555,10 +33639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:42</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44251.75395833333</v>
       </c>
       <c r="I468" t="n">
         <v>3</v>
@@ -34626,10 +33708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-02-24 18:05:36</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44251.75388888889</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
